--- a/BalanceSheet/OTIS_bal.xlsx
+++ b/BalanceSheet/OTIS_bal.xlsx
@@ -220,19 +220,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>686000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>25000000.0</v>
+        <v>659000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-30000000.0</v>
+        <v>667000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-22000000.0</v>
+        <v>629000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>599000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>571000000.0</v>
@@ -715,19 +715,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>29000000.0</v>
+        <v>1459000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1000000.0</v>
+        <v>1453000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-60000000.0</v>
+        <v>1392000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>368000000.0</v>
+        <v>1349000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-289000000.0</v>
+        <v>1102000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1331000000.0</v>
@@ -1878,7 +1878,7 @@
         <v>5497000000.0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-886000000.0</v>
+        <v>-1407000000.0</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>6704000000.0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>560000000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
